--- a/public/export_projet.xlsx
+++ b/public/export_projet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -32,10 +32,10 @@
     <t>Ca</t>
   </si>
   <si>
-    <t>ousema</t>
-  </si>
-  <si>
-    <t>ffffff</t>
+    <t>ousemaA</t>
+  </si>
+  <si>
+    <t>fffffffg</t>
   </si>
   <si>
     <t>2025-01-01</t>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>ammouna</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>2028-01-01</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>45555.0</v>
+        <v>455556.0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,6 +473,23 @@
       </c>
       <c r="E4">
         <v>333366.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>445566.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/export_projet.xlsx
+++ b/public/export_projet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>gggg</t>
   </si>
 </sst>
 </file>
@@ -378,7 +390,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,6 +432,40 @@
         <v>2500.0</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2555.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/export_projet.xlsx
+++ b/public/export_projet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -30,6 +30,42 @@
   </si>
   <si>
     <t>Ca</t>
+  </si>
+  <si>
+    <t>fffllll</t>
+  </si>
+  <si>
+    <t>ffflll</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>jjjj</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>nbrjhb</t>
+  </si>
+  <si>
+    <t>hg</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
   </si>
   <si>
     <t>test</t>
@@ -390,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,7 +453,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -429,40 +465,125 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>2500.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>2555.0</v>
+        <v>5554440.0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>4574.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>2222.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>5555.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2500.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2555.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
         <v>1.0</v>
       </c>
     </row>
